--- a/biology/Microbiologie/Milieu_TSI/Milieu_TSI.xlsx
+++ b/biology/Microbiologie/Milieu_TSI/Milieu_TSI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le triple sugar iron est un milieu utilisé pour l’identification des entérobactéries. Il permet de voir si la bactérie est capable de réduire le sulfate. (Idem que Hajna Kligler).
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Mode d’action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La dégradation de sucre est accompagnée d’une production d’acide. Celle-ci est détectée par l’indicateur de pH, le rouge de phénol, qui en milieu basique est rouge et en milieu acide est jaune orange.
 Le thiosulfate est réduit en sulfures d’hydrogènes par certaines bactéries. Le H2S réagit avec un sel de Fer pour donner un précipité noir.
@@ -569,7 +585,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le milieu de départ est translucide et rouge.
 rouge : pas de fermentation, la bactérie est aérobie
